--- a/No SQL Example.xlsx
+++ b/No SQL Example.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="38">
   <si>
     <t>Season 1</t>
   </si>
@@ -56,36 +56,12 @@
     <t>Finished</t>
   </si>
   <si>
-    <t>Div Lvl 1</t>
-  </si>
-  <si>
-    <t>Div Lvl 2</t>
-  </si>
-  <si>
-    <t>Div 1</t>
-  </si>
-  <si>
     <t>Parent</t>
   </si>
   <si>
-    <t>Div 2</t>
-  </si>
-  <si>
-    <t>Div Lvl 3</t>
-  </si>
-  <si>
-    <t>Div 3</t>
-  </si>
-  <si>
-    <t>Div 4</t>
-  </si>
-  <si>
     <t>Stats</t>
   </si>
   <si>
-    <t>Team Order List</t>
-  </si>
-  <si>
     <t>Team 2</t>
   </si>
   <si>
@@ -96,6 +72,72 @@
   </si>
   <si>
     <t>Team 5</t>
+  </si>
+  <si>
+    <t>Playoff Data</t>
+  </si>
+  <si>
+    <t>Division Data</t>
+  </si>
+  <si>
+    <t>Division Level</t>
+  </si>
+  <si>
+    <t>Ranking Order</t>
+  </si>
+  <si>
+    <t>Team Data</t>
+  </si>
+  <si>
+    <t>Team 6</t>
+  </si>
+  <si>
+    <t>Team 7</t>
+  </si>
+  <si>
+    <t>Team 8</t>
+  </si>
+  <si>
+    <t>Team 9</t>
+  </si>
+  <si>
+    <t>Team 10</t>
+  </si>
+  <si>
+    <t>Team 11</t>
+  </si>
+  <si>
+    <t>Team 12</t>
+  </si>
+  <si>
+    <t>Team 13</t>
+  </si>
+  <si>
+    <t>Team 14</t>
+  </si>
+  <si>
+    <t>Team 15</t>
+  </si>
+  <si>
+    <t>Team 16</t>
+  </si>
+  <si>
+    <t>Team 17</t>
+  </si>
+  <si>
+    <t>Team 18</t>
+  </si>
+  <si>
+    <t>Team 19</t>
+  </si>
+  <si>
+    <t>Team 20</t>
+  </si>
+  <si>
+    <t>Division</t>
+  </si>
+  <si>
+    <t>Rankings</t>
   </si>
 </sst>
 </file>
@@ -450,13 +492,14 @@
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -487,64 +530,55 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
         <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
       </c>
       <c r="G2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
         <v>6</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G3" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
       <c r="E4" t="s">
         <v>6</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E5" t="s">
         <v>6</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G5" t="s">
         <v>19</v>
@@ -552,269 +586,386 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E6" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F6" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="F7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E8" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="F8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" t="s">
+        <v>4</v>
+      </c>
       <c r="E9" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="F9" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G9" t="s">
-        <v>18</v>
+        <v>36</v>
+      </c>
+      <c r="H9" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
       <c r="E10" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="F10" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G10" t="s">
-        <v>18</v>
+        <v>36</v>
+      </c>
+      <c r="H10" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" t="s">
+        <v>36</v>
+      </c>
+      <c r="H11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
         <v>14</v>
       </c>
-      <c r="E11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E12" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F12" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G12" t="s">
-        <v>18</v>
+        <v>36</v>
+      </c>
+      <c r="H12" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>15</v>
+      </c>
       <c r="E13" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="F13" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G13" t="s">
-        <v>18</v>
+        <v>36</v>
+      </c>
+      <c r="H13" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
       <c r="E14" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="F14" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G14" t="s">
-        <v>18</v>
+        <v>36</v>
+      </c>
+      <c r="H14" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
       <c r="E15" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="F15" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G15" t="s">
-        <v>18</v>
+        <v>36</v>
+      </c>
+      <c r="H15" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
       <c r="E16" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="F16" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="H16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E17" t="s">
         <v>6</v>
       </c>
       <c r="F17" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G17" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="H17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>25</v>
+      </c>
       <c r="E18" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F18" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="H18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>26</v>
+      </c>
       <c r="E19" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="F19" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="H19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>27</v>
+      </c>
       <c r="E20" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="F20" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="H20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>28</v>
+      </c>
       <c r="E21" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="F21" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G21" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="H21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>29</v>
+      </c>
       <c r="E22" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="F22" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G22" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="H22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="E23" t="s">
         <v>6</v>
       </c>
       <c r="F23" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G23" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="H23" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>31</v>
+      </c>
       <c r="E24" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F24" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G24" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="H24" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>32</v>
+      </c>
       <c r="E25" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="F25" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G25" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="H25" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>33</v>
+      </c>
       <c r="E26" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="F26" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G26" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="H26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
+        <v>34</v>
+      </c>
       <c r="E27" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="F27" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G27" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="H27" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
+        <v>35</v>
+      </c>
       <c r="E28" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="F28" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G28" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="H28" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>2</v>
+      </c>
+      <c r="C29" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/No SQL Example.xlsx
+++ b/No SQL Example.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="39">
   <si>
     <t>Season 1</t>
   </si>
@@ -83,9 +83,6 @@
     <t>Division Level</t>
   </si>
   <si>
-    <t>Ranking Order</t>
-  </si>
-  <si>
     <t>Team Data</t>
   </si>
   <si>
@@ -134,10 +131,16 @@
     <t>Team 20</t>
   </si>
   <si>
-    <t>Division</t>
-  </si>
-  <si>
-    <t>Rankings</t>
+    <t>Ranking Order (by level, 5, 3, 1)</t>
+  </si>
+  <si>
+    <t>Divisions</t>
+  </si>
+  <si>
+    <t>Order</t>
+  </si>
+  <si>
+    <t>Configuration</t>
   </si>
 </sst>
 </file>
@@ -489,10 +492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -502,7 +505,7 @@
     <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -527,8 +530,11 @@
       <c r="H1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>17</v>
       </c>
@@ -542,10 +548,10 @@
         <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
         <v>18</v>
       </c>
@@ -556,10 +562,10 @@
         <v>10</v>
       </c>
       <c r="G3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
         <v>6</v>
       </c>
@@ -567,10 +573,10 @@
         <v>10</v>
       </c>
       <c r="G4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
         <v>18</v>
       </c>
@@ -581,10 +587,10 @@
         <v>10</v>
       </c>
       <c r="G5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E6" t="s">
         <v>6</v>
       </c>
@@ -592,10 +598,10 @@
         <v>10</v>
       </c>
       <c r="G6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
         <v>6</v>
       </c>
@@ -603,10 +609,10 @@
         <v>10</v>
       </c>
       <c r="G7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E8" t="s">
         <v>6</v>
       </c>
@@ -614,12 +620,12 @@
         <v>10</v>
       </c>
       <c r="G8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
-        <v>20</v>
       </c>
       <c r="D9" t="s">
         <v>4</v>
@@ -634,10 +640,10 @@
         <v>36</v>
       </c>
       <c r="H9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
         <v>12</v>
       </c>
@@ -651,10 +657,10 @@
         <v>36</v>
       </c>
       <c r="H10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
         <v>13</v>
       </c>
@@ -668,10 +674,10 @@
         <v>36</v>
       </c>
       <c r="H11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
         <v>14</v>
       </c>
@@ -685,10 +691,10 @@
         <v>36</v>
       </c>
       <c r="H12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
         <v>15</v>
       </c>
@@ -702,47 +708,47 @@
         <v>36</v>
       </c>
       <c r="H13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" t="s">
+        <v>36</v>
+      </c>
+      <c r="H14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
         <v>21</v>
       </c>
-      <c r="E14" t="s">
-        <v>6</v>
-      </c>
-      <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" t="s">
-        <v>36</v>
-      </c>
-      <c r="H14" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D15" t="s">
+      <c r="E15" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" t="s">
+        <v>36</v>
+      </c>
+      <c r="H15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E15" t="s">
-        <v>6</v>
-      </c>
-      <c r="F15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" t="s">
-        <v>36</v>
-      </c>
-      <c r="H15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
       <c r="E16" t="s">
         <v>6</v>
       </c>
@@ -753,12 +759,12 @@
         <v>36</v>
       </c>
       <c r="H16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E17" t="s">
         <v>6</v>
@@ -770,12 +776,12 @@
         <v>36</v>
       </c>
       <c r="H17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E18" t="s">
         <v>6</v>
@@ -787,12 +793,12 @@
         <v>36</v>
       </c>
       <c r="H18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E19" t="s">
         <v>6</v>
@@ -804,12 +810,12 @@
         <v>36</v>
       </c>
       <c r="H19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E20" t="s">
         <v>6</v>
@@ -821,12 +827,12 @@
         <v>36</v>
       </c>
       <c r="H20" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E21" t="s">
         <v>6</v>
@@ -838,12 +844,12 @@
         <v>36</v>
       </c>
       <c r="H21" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E22" t="s">
         <v>6</v>
@@ -855,12 +861,12 @@
         <v>36</v>
       </c>
       <c r="H22" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E23" t="s">
         <v>6</v>
@@ -872,12 +878,12 @@
         <v>36</v>
       </c>
       <c r="H23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E24" t="s">
         <v>6</v>
@@ -889,12 +895,12 @@
         <v>36</v>
       </c>
       <c r="H24" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E25" t="s">
         <v>6</v>
@@ -906,12 +912,12 @@
         <v>36</v>
       </c>
       <c r="H25" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E26" t="s">
         <v>6</v>
@@ -923,12 +929,12 @@
         <v>36</v>
       </c>
       <c r="H26" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E27" t="s">
         <v>6</v>
@@ -940,12 +946,12 @@
         <v>36</v>
       </c>
       <c r="H27" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E28" t="s">
         <v>6</v>
@@ -957,7 +963,7 @@
         <v>36</v>
       </c>
       <c r="H28" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">

--- a/No SQL Example.xlsx
+++ b/No SQL Example.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="46">
   <si>
     <t>Year 1</t>
   </si>
@@ -138,6 +138,30 @@
   </si>
   <si>
     <t>Yearly Data</t>
+  </si>
+  <si>
+    <t>League Data</t>
+  </si>
+  <si>
+    <t>First year</t>
+  </si>
+  <si>
+    <t>First Year</t>
+  </si>
+  <si>
+    <t>Last Year</t>
+  </si>
+  <si>
+    <t>Game Rules (move?)</t>
+  </si>
+  <si>
+    <t>Parent Config List</t>
+  </si>
+  <si>
+    <t>Schedule Data</t>
+  </si>
+  <si>
+    <t>Ranking Data</t>
   </si>
 </sst>
 </file>
@@ -489,848 +513,944 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R42"/>
+  <dimension ref="A1:S50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="29" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="29" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>36</v>
       </c>
+      <c r="B1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>15</v>
       </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
       <c r="E2" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="G2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H2" t="s">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="I2" t="s">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="J2" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="K2" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E3" t="s">
+      <c r="G3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G4" t="s">
         <v>8</v>
-      </c>
-      <c r="F3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H4" t="s">
-        <v>5</v>
-      </c>
-      <c r="I4" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G5" t="s">
-        <v>3</v>
-      </c>
-      <c r="H5" t="s">
-        <v>5</v>
-      </c>
-      <c r="I5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F6" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G6" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="H6" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="I6" t="s">
-        <v>13</v>
+        <v>41</v>
+      </c>
+      <c r="J6" t="s">
+        <v>42</v>
+      </c>
+      <c r="K6" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G7" t="s">
-        <v>3</v>
-      </c>
-      <c r="H7" t="s">
-        <v>5</v>
-      </c>
-      <c r="I7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G8" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" t="s">
-        <v>5</v>
-      </c>
-      <c r="I8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" t="s">
+        <v>1</v>
+      </c>
+      <c r="I10" t="s">
+        <v>4</v>
+      </c>
+      <c r="J10" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G9" t="s">
-        <v>3</v>
-      </c>
-      <c r="H9" t="s">
-        <v>5</v>
-      </c>
-      <c r="I9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" t="s">
-        <v>3</v>
-      </c>
-      <c r="G10" t="s">
-        <v>6</v>
-      </c>
-      <c r="H10" t="s">
-        <v>12</v>
-      </c>
-      <c r="I10" t="s">
-        <v>11</v>
+      <c r="K10" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F11" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G11" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H11" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="I11" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="J11" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F12" t="s">
-        <v>3</v>
-      </c>
       <c r="G12" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H12" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="I12" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="J12" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F13" t="s">
-        <v>3</v>
-      </c>
-      <c r="G13" t="s">
-        <v>6</v>
-      </c>
       <c r="H13" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="I13" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="J13" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F14" t="s">
-        <v>3</v>
-      </c>
       <c r="G14" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H14" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="I14" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="J14" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F15" t="s">
-        <v>3</v>
-      </c>
-      <c r="G15" t="s">
-        <v>6</v>
-      </c>
       <c r="H15" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="I15" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="J15" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F16" t="s">
-        <v>3</v>
-      </c>
-      <c r="G16" t="s">
-        <v>6</v>
-      </c>
       <c r="H16" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="I16" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="J16" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="F17" t="s">
-        <v>3</v>
-      </c>
-      <c r="G17" t="s">
-        <v>6</v>
-      </c>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="6:11" x14ac:dyDescent="0.25">
       <c r="H17" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="I17" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="J17" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="4:18" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F18" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G18" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H18" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="I18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J18" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="F19" t="s">
-        <v>3</v>
-      </c>
+    <row r="19" spans="6:11" x14ac:dyDescent="0.25">
       <c r="G19" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H19" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="I19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J19" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="20" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="F20" t="s">
-        <v>3</v>
-      </c>
+      <c r="K19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="6:11" x14ac:dyDescent="0.25">
       <c r="G20" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H20" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="I20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J20" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="21" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="F21" t="s">
-        <v>3</v>
-      </c>
+      <c r="K20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="6:11" x14ac:dyDescent="0.25">
       <c r="G21" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H21" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="I21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J21" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="22" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="F22" t="s">
-        <v>3</v>
-      </c>
+      <c r="K21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="6:11" x14ac:dyDescent="0.25">
       <c r="G22" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H22" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="I22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J22" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="23" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="F23" t="s">
-        <v>3</v>
-      </c>
+      <c r="K22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="6:11" x14ac:dyDescent="0.25">
       <c r="G23" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H23" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="I23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J23" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="24" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="F24" t="s">
-        <v>3</v>
-      </c>
+      <c r="K23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="6:11" x14ac:dyDescent="0.25">
       <c r="G24" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H24" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="I24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J24" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="25" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="F25" t="s">
-        <v>3</v>
-      </c>
+      <c r="K24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="6:11" x14ac:dyDescent="0.25">
       <c r="G25" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H25" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="I25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J25" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="26" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="F26" t="s">
-        <v>3</v>
-      </c>
+      <c r="K25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="6:11" x14ac:dyDescent="0.25">
       <c r="G26" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H26" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="I26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J26" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="27" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="F27" t="s">
-        <v>3</v>
-      </c>
+      <c r="K26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="6:11" x14ac:dyDescent="0.25">
       <c r="G27" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H27" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="I27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J27" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="28" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="F28" t="s">
-        <v>3</v>
-      </c>
+      <c r="K27" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="6:11" x14ac:dyDescent="0.25">
       <c r="G28" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H28" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="I28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J28" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="29" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="F29" t="s">
-        <v>3</v>
-      </c>
+      <c r="K28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="6:11" x14ac:dyDescent="0.25">
       <c r="G29" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H29" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="I29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J29" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="30" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D30" t="s">
+      <c r="K29" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="G30" t="s">
+        <v>3</v>
+      </c>
+      <c r="H30" t="s">
+        <v>6</v>
+      </c>
+      <c r="I30" t="s">
+        <v>12</v>
+      </c>
+      <c r="J30" t="s">
+        <v>11</v>
+      </c>
+      <c r="K30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="G31" t="s">
+        <v>3</v>
+      </c>
+      <c r="H31" t="s">
+        <v>6</v>
+      </c>
+      <c r="I31" t="s">
+        <v>12</v>
+      </c>
+      <c r="J31" t="s">
+        <v>11</v>
+      </c>
+      <c r="K31" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="G32" t="s">
+        <v>3</v>
+      </c>
+      <c r="H32" t="s">
+        <v>6</v>
+      </c>
+      <c r="I32" t="s">
+        <v>12</v>
+      </c>
+      <c r="J32" t="s">
+        <v>11</v>
+      </c>
+      <c r="K32" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="G33" t="s">
+        <v>3</v>
+      </c>
+      <c r="H33" t="s">
+        <v>6</v>
+      </c>
+      <c r="I33" t="s">
+        <v>12</v>
+      </c>
+      <c r="J33" t="s">
+        <v>11</v>
+      </c>
+      <c r="K33" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="G34" t="s">
+        <v>3</v>
+      </c>
+      <c r="H34" t="s">
+        <v>6</v>
+      </c>
+      <c r="I34" t="s">
+        <v>12</v>
+      </c>
+      <c r="J34" t="s">
+        <v>11</v>
+      </c>
+      <c r="K34" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="G35" t="s">
+        <v>3</v>
+      </c>
+      <c r="H35" t="s">
+        <v>6</v>
+      </c>
+      <c r="I35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J35" t="s">
+        <v>11</v>
+      </c>
+      <c r="K35" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="G36" t="s">
+        <v>3</v>
+      </c>
+      <c r="H36" t="s">
+        <v>6</v>
+      </c>
+      <c r="I36" t="s">
+        <v>12</v>
+      </c>
+      <c r="J36" t="s">
+        <v>11</v>
+      </c>
+      <c r="K36" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="G37" t="s">
+        <v>3</v>
+      </c>
+      <c r="H37" t="s">
+        <v>6</v>
+      </c>
+      <c r="I37" t="s">
+        <v>12</v>
+      </c>
+      <c r="J37" t="s">
+        <v>11</v>
+      </c>
+      <c r="K37" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="D38" t="s">
         <v>7</v>
       </c>
-      <c r="E30" t="s">
-        <v>3</v>
-      </c>
-      <c r="F30" t="s">
+      <c r="E38" t="s">
+        <v>3</v>
+      </c>
+      <c r="F38" t="s">
         <v>16</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G38" t="s">
         <v>17</v>
       </c>
-      <c r="H30" t="s">
+      <c r="H38" t="s">
         <v>1</v>
       </c>
-      <c r="I30" t="s">
+      <c r="I38" t="s">
         <v>4</v>
       </c>
-      <c r="J30" t="s">
+      <c r="J38" t="s">
         <v>13</v>
       </c>
-      <c r="K30" t="s">
+      <c r="K38" t="s">
         <v>14</v>
       </c>
-      <c r="L30" t="s">
+      <c r="L38" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="E31" t="s">
+    <row r="39" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="F39" t="s">
         <v>19</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G39" t="s">
         <v>21</v>
       </c>
-      <c r="G31" t="s">
-        <v>3</v>
-      </c>
-      <c r="H31" t="s">
+      <c r="H39" t="s">
+        <v>3</v>
+      </c>
+      <c r="I39" t="s">
         <v>20</v>
       </c>
-      <c r="I31" t="s">
+      <c r="J39" t="s">
         <v>16</v>
       </c>
-      <c r="J31" t="s">
+      <c r="K39" t="s">
         <v>22</v>
       </c>
-      <c r="K31" t="s">
+      <c r="L39" t="s">
         <v>23</v>
       </c>
-      <c r="L31" t="s">
+      <c r="M39" t="s">
         <v>24</v>
       </c>
-      <c r="M31" t="s">
+      <c r="N39" t="s">
         <v>25</v>
       </c>
-      <c r="N31" t="s">
+      <c r="O39" t="s">
         <v>26</v>
       </c>
-      <c r="O31" t="s">
+      <c r="P39" t="s">
         <v>27</v>
       </c>
-      <c r="P31" t="s">
+      <c r="Q39" t="s">
         <v>31</v>
       </c>
-      <c r="Q31" t="s">
+      <c r="R39" t="s">
         <v>32</v>
       </c>
-      <c r="R31" t="s">
+      <c r="S39" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="G32" t="s">
-        <v>3</v>
-      </c>
-      <c r="H32" t="s">
+    <row r="40" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="H40" t="s">
+        <v>3</v>
+      </c>
+      <c r="I40" t="s">
         <v>20</v>
       </c>
-      <c r="I32" t="s">
+      <c r="J40" t="s">
         <v>16</v>
       </c>
-      <c r="J32" t="s">
+      <c r="K40" t="s">
         <v>22</v>
       </c>
-      <c r="K32" t="s">
+      <c r="L40" t="s">
         <v>23</v>
       </c>
-      <c r="L32" t="s">
+      <c r="M40" t="s">
         <v>24</v>
       </c>
-      <c r="M32" t="s">
+      <c r="N40" t="s">
         <v>25</v>
       </c>
-      <c r="N32" t="s">
+      <c r="O40" t="s">
         <v>26</v>
       </c>
-      <c r="O32" t="s">
+      <c r="P40" t="s">
         <v>27</v>
       </c>
-      <c r="P32" t="s">
+      <c r="Q40" t="s">
         <v>31</v>
       </c>
-      <c r="Q32" t="s">
+      <c r="R40" t="s">
         <v>32</v>
       </c>
-      <c r="R32" t="s">
+      <c r="S40" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="F33" t="s">
+    <row r="41" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="G41" t="s">
         <v>21</v>
       </c>
-      <c r="G33" t="s">
-        <v>3</v>
-      </c>
-      <c r="H33" t="s">
+      <c r="H41" t="s">
+        <v>3</v>
+      </c>
+      <c r="I41" t="s">
         <v>20</v>
       </c>
-      <c r="I33" t="s">
+      <c r="J41" t="s">
         <v>16</v>
       </c>
-      <c r="J33" t="s">
+      <c r="K41" t="s">
         <v>22</v>
       </c>
-      <c r="K33" t="s">
+      <c r="L41" t="s">
         <v>23</v>
       </c>
-      <c r="L33" t="s">
+      <c r="M41" t="s">
         <v>24</v>
       </c>
-      <c r="M33" t="s">
+      <c r="N41" t="s">
         <v>25</v>
       </c>
-      <c r="N33" t="s">
+      <c r="O41" t="s">
         <v>26</v>
       </c>
-      <c r="O33" t="s">
+      <c r="P41" t="s">
         <v>27</v>
       </c>
-      <c r="P33" t="s">
+      <c r="Q41" t="s">
         <v>31</v>
       </c>
-      <c r="Q33" t="s">
+      <c r="R41" t="s">
         <v>32</v>
       </c>
-      <c r="R33" t="s">
+      <c r="S41" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="G34" t="s">
-        <v>3</v>
-      </c>
-      <c r="H34" t="s">
+    <row r="42" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="H42" t="s">
+        <v>3</v>
+      </c>
+      <c r="I42" t="s">
         <v>20</v>
       </c>
-      <c r="I34" t="s">
+      <c r="J42" t="s">
         <v>16</v>
       </c>
-      <c r="J34" t="s">
+      <c r="K42" t="s">
         <v>22</v>
       </c>
-      <c r="K34" t="s">
+      <c r="L42" t="s">
         <v>23</v>
       </c>
-      <c r="L34" t="s">
+      <c r="M42" t="s">
         <v>24</v>
       </c>
-      <c r="M34" t="s">
+      <c r="N42" t="s">
         <v>25</v>
       </c>
-      <c r="N34" t="s">
+      <c r="O42" t="s">
         <v>26</v>
       </c>
-      <c r="O34" t="s">
+      <c r="P42" t="s">
         <v>27</v>
       </c>
-      <c r="P34" t="s">
+      <c r="Q42" t="s">
         <v>31</v>
       </c>
-      <c r="Q34" t="s">
+      <c r="R42" t="s">
         <v>32</v>
       </c>
-      <c r="R34" t="s">
+      <c r="S42" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C35" t="s">
+    <row r="43" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C43" t="s">
         <v>28</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D43" t="s">
         <v>29</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E43" t="s">
         <v>30</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F43" t="s">
         <v>26</v>
       </c>
-      <c r="G35" t="s">
+      <c r="G43" t="s">
         <v>31</v>
       </c>
-      <c r="H35" t="s">
+      <c r="H43" t="s">
         <v>27</v>
       </c>
-      <c r="I35" t="s">
+      <c r="I43" t="s">
         <v>32</v>
       </c>
-      <c r="J35" t="s">
+      <c r="J43" t="s">
         <v>33</v>
       </c>
-      <c r="K35" t="s">
+      <c r="K43" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="F36" t="s">
+    <row r="44" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="F44" t="s">
         <v>26</v>
       </c>
-      <c r="G36" t="s">
+      <c r="G44" t="s">
         <v>31</v>
       </c>
-      <c r="H36" t="s">
+      <c r="H44" t="s">
         <v>27</v>
       </c>
-      <c r="I36" t="s">
+      <c r="I44" t="s">
         <v>32</v>
       </c>
-      <c r="J36" t="s">
+      <c r="J44" t="s">
         <v>33</v>
       </c>
-      <c r="K36" t="s">
+      <c r="K44" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="F37" t="s">
+    <row r="45" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="F45" t="s">
         <v>26</v>
       </c>
-      <c r="G37" t="s">
+      <c r="G45" t="s">
         <v>31</v>
       </c>
-      <c r="H37" t="s">
+      <c r="H45" t="s">
         <v>27</v>
       </c>
-      <c r="I37" t="s">
+      <c r="I45" t="s">
         <v>32</v>
       </c>
-      <c r="J37" t="s">
+      <c r="J45" t="s">
         <v>33</v>
       </c>
-      <c r="K37" t="s">
+      <c r="K45" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="F38" t="s">
+    <row r="46" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="F46" t="s">
         <v>26</v>
       </c>
-      <c r="G38" t="s">
+      <c r="G46" t="s">
         <v>31</v>
       </c>
-      <c r="H38" t="s">
+      <c r="H46" t="s">
         <v>27</v>
       </c>
-      <c r="I38" t="s">
+      <c r="I46" t="s">
         <v>32</v>
       </c>
-      <c r="J38" t="s">
+      <c r="J46" t="s">
         <v>33</v>
       </c>
-      <c r="K38" t="s">
+      <c r="K46" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="F39" t="s">
+    <row r="47" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="F47" t="s">
         <v>26</v>
       </c>
-      <c r="G39" t="s">
+      <c r="G47" t="s">
         <v>31</v>
       </c>
-      <c r="H39" t="s">
+      <c r="H47" t="s">
         <v>27</v>
       </c>
-      <c r="I39" t="s">
+      <c r="I47" t="s">
         <v>32</v>
       </c>
-      <c r="J39" t="s">
+      <c r="J47" t="s">
         <v>33</v>
       </c>
-      <c r="K39" t="s">
+      <c r="K47" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="F40" t="s">
+    <row r="48" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="F48" t="s">
         <v>26</v>
       </c>
-      <c r="G40" t="s">
+      <c r="G48" t="s">
         <v>31</v>
       </c>
-      <c r="H40" t="s">
+      <c r="H48" t="s">
         <v>27</v>
       </c>
-      <c r="I40" t="s">
+      <c r="I48" t="s">
         <v>32</v>
       </c>
-      <c r="J40" t="s">
+      <c r="J48" t="s">
         <v>33</v>
       </c>
-      <c r="K40" t="s">
+      <c r="K48" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="41" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="F41" t="s">
+    <row r="49" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F49" t="s">
         <v>26</v>
       </c>
-      <c r="G41" t="s">
+      <c r="G49" t="s">
         <v>31</v>
       </c>
-      <c r="H41" t="s">
+      <c r="H49" t="s">
         <v>27</v>
       </c>
-      <c r="I41" t="s">
+      <c r="I49" t="s">
         <v>32</v>
       </c>
-      <c r="J41" t="s">
+      <c r="J49" t="s">
         <v>33</v>
       </c>
-      <c r="K41" t="s">
+      <c r="K49" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="42" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="F42" t="s">
+    <row r="50" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F50" t="s">
         <v>26</v>
       </c>
-      <c r="G42" t="s">
+      <c r="G50" t="s">
         <v>31</v>
       </c>
-      <c r="H42" t="s">
+      <c r="H50" t="s">
         <v>27</v>
       </c>
-      <c r="I42" t="s">
+      <c r="I50" t="s">
         <v>32</v>
       </c>
-      <c r="J42" t="s">
+      <c r="J50" t="s">
         <v>33</v>
       </c>
-      <c r="K42" t="s">
+      <c r="K50" t="s">
         <v>35</v>
       </c>
     </row>

--- a/No SQL Example.xlsx
+++ b/No SQL Example.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="46">
   <si>
     <t>Year 1</t>
   </si>
@@ -515,8 +515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -744,7 +744,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="6:10" x14ac:dyDescent="0.25">
       <c r="H17" t="s">
         <v>3</v>
       </c>
@@ -755,7 +755,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F18" t="s">
         <v>10</v>
       </c>
@@ -772,7 +772,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="6:10" x14ac:dyDescent="0.25">
       <c r="G19" t="s">
         <v>3</v>
       </c>
@@ -785,11 +785,8 @@
       <c r="J19" t="s">
         <v>11</v>
       </c>
-      <c r="K19" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="6:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="6:10" x14ac:dyDescent="0.25">
       <c r="G20" t="s">
         <v>3</v>
       </c>
@@ -802,11 +799,8 @@
       <c r="J20" t="s">
         <v>11</v>
       </c>
-      <c r="K20" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="6:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="6:10" x14ac:dyDescent="0.25">
       <c r="G21" t="s">
         <v>3</v>
       </c>
@@ -819,11 +813,8 @@
       <c r="J21" t="s">
         <v>11</v>
       </c>
-      <c r="K21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="6:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="6:10" x14ac:dyDescent="0.25">
       <c r="G22" t="s">
         <v>3</v>
       </c>
@@ -836,11 +827,8 @@
       <c r="J22" t="s">
         <v>11</v>
       </c>
-      <c r="K22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="6:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="6:10" x14ac:dyDescent="0.25">
       <c r="G23" t="s">
         <v>3</v>
       </c>
@@ -853,11 +841,8 @@
       <c r="J23" t="s">
         <v>11</v>
       </c>
-      <c r="K23" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="6:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="6:10" x14ac:dyDescent="0.25">
       <c r="G24" t="s">
         <v>3</v>
       </c>
@@ -870,11 +855,8 @@
       <c r="J24" t="s">
         <v>11</v>
       </c>
-      <c r="K24" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="6:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="6:10" x14ac:dyDescent="0.25">
       <c r="G25" t="s">
         <v>3</v>
       </c>
@@ -887,11 +869,8 @@
       <c r="J25" t="s">
         <v>11</v>
       </c>
-      <c r="K25" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" spans="6:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="6:10" x14ac:dyDescent="0.25">
       <c r="G26" t="s">
         <v>3</v>
       </c>
@@ -904,11 +883,8 @@
       <c r="J26" t="s">
         <v>11</v>
       </c>
-      <c r="K26" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" spans="6:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="6:10" x14ac:dyDescent="0.25">
       <c r="G27" t="s">
         <v>3</v>
       </c>
@@ -921,11 +897,8 @@
       <c r="J27" t="s">
         <v>11</v>
       </c>
-      <c r="K27" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="28" spans="6:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="6:10" x14ac:dyDescent="0.25">
       <c r="G28" t="s">
         <v>3</v>
       </c>
@@ -938,11 +911,8 @@
       <c r="J28" t="s">
         <v>11</v>
       </c>
-      <c r="K28" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" spans="6:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="6:10" x14ac:dyDescent="0.25">
       <c r="G29" t="s">
         <v>3</v>
       </c>
@@ -955,11 +925,8 @@
       <c r="J29" t="s">
         <v>11</v>
       </c>
-      <c r="K29" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="30" spans="6:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="6:10" x14ac:dyDescent="0.25">
       <c r="G30" t="s">
         <v>3</v>
       </c>
@@ -972,11 +939,8 @@
       <c r="J30" t="s">
         <v>11</v>
       </c>
-      <c r="K30" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="31" spans="6:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="6:10" x14ac:dyDescent="0.25">
       <c r="G31" t="s">
         <v>3</v>
       </c>
@@ -989,11 +953,8 @@
       <c r="J31" t="s">
         <v>11</v>
       </c>
-      <c r="K31" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="32" spans="6:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="6:10" x14ac:dyDescent="0.25">
       <c r="G32" t="s">
         <v>3</v>
       </c>
@@ -1004,9 +965,6 @@
         <v>12</v>
       </c>
       <c r="J32" t="s">
-        <v>11</v>
-      </c>
-      <c r="K32" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1023,9 +981,6 @@
       <c r="J33" t="s">
         <v>11</v>
       </c>
-      <c r="K33" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="34" spans="3:19" x14ac:dyDescent="0.25">
       <c r="G34" t="s">
@@ -1040,9 +995,6 @@
       <c r="J34" t="s">
         <v>11</v>
       </c>
-      <c r="K34" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="35" spans="3:19" x14ac:dyDescent="0.25">
       <c r="G35" t="s">
@@ -1057,9 +1009,6 @@
       <c r="J35" t="s">
         <v>11</v>
       </c>
-      <c r="K35" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="36" spans="3:19" x14ac:dyDescent="0.25">
       <c r="G36" t="s">
@@ -1074,9 +1023,6 @@
       <c r="J36" t="s">
         <v>11</v>
       </c>
-      <c r="K36" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="37" spans="3:19" x14ac:dyDescent="0.25">
       <c r="G37" t="s">
@@ -1089,9 +1035,6 @@
         <v>12</v>
       </c>
       <c r="J37" t="s">
-        <v>11</v>
-      </c>
-      <c r="K37" t="s">
         <v>11</v>
       </c>
     </row>
